--- a/InputData/add-outputs/VoaSL/Value of a Statistical Life.xlsx
+++ b/InputData/add-outputs/VoaSL/Value of a Statistical Life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/add-outputs/voasl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\NM\add-outputs\VoaSL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A91ECE-9BAD-354B-83EA-82AF2191AE1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E41528-ECC3-4F30-BCE4-43D800E33E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="25840" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="570" windowWidth="16460" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>VoaSL Value of a Statistical Life</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>https://www.epa.gov/environmental-economics/mortality-risk-valuation#whatvalue</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
   </si>
 </sst>
 </file>
@@ -489,20 +492,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1" s="6">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,70 +516,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.141</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -598,12 +604,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -611,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
